--- a/biology/Médecine/Nœud_lymphatique_trachéo-bronchique/Nœud_lymphatique_trachéo-bronchique.xlsx
+++ b/biology/Médecine/Nœud_lymphatique_trachéo-bronchique/Nœud_lymphatique_trachéo-bronchique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nœuds lymphatiques trachéo-bronchiques (ou ganglions lymphatiques trachéo-bronchiques) sont des ganglions lymphatiques situés autour de la division de la trachée thoracique et des bronches principales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,24 +523,177 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nœuds lymphatiques trachéo-bronchiques reçoivent les vaisseaux lymphatiques du poumon homolatéral.
 Ils forment deux groupes : les nœuds lymphatiques trachéo-bronchiques supérieurs et les nœuds lymphatiques trachéo-bronchiques inférieurs.
 Leurs vaisseaux efférents montent sur la trachée et s'unissent aux efférents des glandes mammaires et du médiastin antérieur pour former les troncs lymphatiques broncho-médiastinaux droit et gauche.
-Nœuds lymphatiques trachéo-bronchiques supérieurs
-Terminologie
-Ces ganglions ont reçu de nombreuses dénominations : ganglions lymphatiques prétrachéaux, ganglions lymphatiques trachéo-bronchiques supérieurs, chaîne lymphatique latérotrachéale, chaîne lymphatique paratrachéale et chaîne lymphatique récurrentielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques supérieurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces ganglions ont reçu de nombreuses dénominations : ganglions lymphatiques prétrachéaux, ganglions lymphatiques trachéo-bronchiques supérieurs, chaîne lymphatique latérotrachéale, chaîne lymphatique paratrachéale et chaîne lymphatique récurrentielle.
 Les droits avaient leur propre terminologie : ganglions lymphatiques prétrachéobronchiques droits de Baréty ou ganglions lymphatiques latérotrachéaux susbronchiques droits de Hovelacque ou ganglions lymphatiques trachéobronchiques de Sukiennikow.
-Nœuds lymphatiques trachéo-bronchiques supérieurs droits
-Ils reçoivent les efférents des nœuds trachéo-bronchiques inférieurs et des nœuds lymphatiques broncho-pulmonaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques supérieurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques supérieurs droits</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils reçoivent les efférents des nœuds trachéo-bronchiques inférieurs et des nœuds lymphatiques broncho-pulmonaires.
 Ils drainent directement les lobes supérieur et moyen droit des poumons, ainsi que le segment supérieur du lobe inférieur droit des poumons.
-Nœuds lymphatiques trachéo-bronchiques supérieurs gauches
-Ils se situent en dehors du bord postéro-latéral de la trachée, devant l’œsophage et en avant et en dedans du nerf laryngé récurrent gauche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques supérieurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques supérieurs gauches</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se situent en dehors du bord postéro-latéral de la trachée, devant l’œsophage et en avant et en dedans du nerf laryngé récurrent gauche.
 Ils drainent les nœuds lymphatiques sus-bronchiques gauches.
 Ils se drainent dans les nœuds lymphatiques paratrachéaux.
-Nœuds lymphatiques trachéo-bronchiques inférieurs
-Ces ganglions ont également reçu de nombreuses dénominations : ganglions lymphatiques de la bifurcation trachéale, ganglions lymphatiques inter-trachéobronchiques, ganglions lymphatiques souscarénaires et ganglions trachéobronchiques inférieurs de Sukiennikow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nœud_lymphatique_trachéo-bronchique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C5%93ud_lymphatique_trach%C3%A9o-bronchique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nœuds lymphatiques trachéo-bronchiques inférieurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces ganglions ont également reçu de nombreuses dénominations : ganglions lymphatiques de la bifurcation trachéale, ganglions lymphatiques inter-trachéobronchiques, ganglions lymphatiques souscarénaires et ganglions trachéobronchiques inférieurs de Sukiennikow.
 Ils drainent la lymphe de :
 la pyramide basale des poumons ;
 le lobe moyen des poumons ;
